--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59__MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59__MechVent__TestJob1.xlsx
@@ -33,12 +33,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -78,42 +78,42 @@
     <t>20220303</t>
   </si>
   <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>O.Hensby</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-03 15:32:34.364641</t>
+    <t>2022-03-03 16:23:21.729804</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -581,8 +581,8 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
     <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1067,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1098,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1115,10 +1115,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1132,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1149,10 +1149,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1166,10 +1166,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1183,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1200,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1217,10 +1217,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1234,7 +1234,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
